--- a/Project submission/Wrangle and Analyze Data/incorrect_deno.xlsx
+++ b/Project submission/Wrangle and Analyze Data/incorrect_deno.xlsx
@@ -641,7 +641,7 @@
         <v>42790</v>
       </c>
       <c r="M2" s="2">
-        <v>44572.91253472222</v>
+        <v>44574.91253472222</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -670,7 +670,7 @@
         <v>42782</v>
       </c>
       <c r="M3" s="2">
-        <v>44572.19849537037</v>
+        <v>44574.19849537037</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -699,7 +699,7 @@
         <v>42750</v>
       </c>
       <c r="M4" s="2">
-        <v>44572.74490740741</v>
+        <v>44574.74490740741</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -728,7 +728,7 @@
         <v>42723</v>
       </c>
       <c r="M5" s="2">
-        <v>44572.9627662037</v>
+        <v>44574.9627662037</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -757,7 +757,7 @@
         <v>42579</v>
       </c>
       <c r="M6" s="2">
-        <v>44572.04232638889</v>
+        <v>44574.04232638889</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -786,7 +786,7 @@
         <v>42529</v>
       </c>
       <c r="M7" s="2">
-        <v>44572.11224537037</v>
+        <v>44574.11224537037</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -815,7 +815,7 @@
         <v>42503</v>
       </c>
       <c r="M8" s="2">
-        <v>44572.67770833334</v>
+        <v>44574.67770833334</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -844,7 +844,7 @@
         <v>42481</v>
       </c>
       <c r="M9" s="2">
-        <v>44572.10123842592</v>
+        <v>44574.10123842592</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -873,7 +873,7 @@
         <v>42463</v>
       </c>
       <c r="M10" s="2">
-        <v>44572.06679398148</v>
+        <v>44574.06679398148</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -902,7 +902,7 @@
         <v>42456</v>
       </c>
       <c r="M11" s="2">
-        <v>44572.06182870371</v>
+        <v>44574.06182870371</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -931,7 +931,7 @@
         <v>42447</v>
       </c>
       <c r="M12" s="2">
-        <v>44572.11584490741</v>
+        <v>44574.11584490741</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -960,7 +960,7 @@
         <v>42443</v>
       </c>
       <c r="M13" s="2">
-        <v>44572.0862037037</v>
+        <v>44574.0862037037</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -989,7 +989,7 @@
         <v>42428</v>
       </c>
       <c r="M14" s="2">
-        <v>44572.89270833333</v>
+        <v>44574.89270833333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1018,7 +1018,7 @@
         <v>42410</v>
       </c>
       <c r="M15" s="2">
-        <v>44572.70276620371</v>
+        <v>44574.70276620371</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1047,7 +1047,7 @@
         <v>42379</v>
       </c>
       <c r="M16" s="2">
-        <v>44572.16956018518</v>
+        <v>44574.16956018518</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1076,7 +1076,7 @@
         <v>42374</v>
       </c>
       <c r="M17" s="2">
-        <v>44572.17481481482</v>
+        <v>44574.17481481482</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1105,7 +1105,7 @@
         <v>42374</v>
       </c>
       <c r="M18" s="2">
-        <v>44572.166875</v>
+        <v>44574.166875</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1134,7 +1134,7 @@
         <v>42370</v>
       </c>
       <c r="M19" s="2">
-        <v>44572.68765046296</v>
+        <v>44574.68765046296</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1163,7 +1163,7 @@
         <v>42370</v>
       </c>
       <c r="M20" s="2">
-        <v>44572.2653125</v>
+        <v>44574.2653125</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1192,7 +1192,7 @@
         <v>42356</v>
       </c>
       <c r="M21" s="2">
-        <v>44572.2127662037</v>
+        <v>44574.2127662037</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1221,7 +1221,7 @@
         <v>42351</v>
       </c>
       <c r="M22" s="2">
-        <v>44572.07061342592</v>
+        <v>44574.07061342592</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1250,7 +1250,7 @@
         <v>42324</v>
       </c>
       <c r="M23" s="2">
-        <v>44572.67443287037</v>
+        <v>44574.67443287037</v>
       </c>
     </row>
   </sheetData>
